--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3203.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3203.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9092944320161125</v>
+        <v>1.503401875495911</v>
       </c>
       <c r="B1">
-        <v>1.645198566880404</v>
+        <v>2.100000858306885</v>
       </c>
       <c r="C1">
-        <v>5.745656393618784</v>
+        <v>2.489894866943359</v>
       </c>
       <c r="D1">
-        <v>4.445518168780365</v>
+        <v>2.972882032394409</v>
       </c>
       <c r="E1">
-        <v>1.777845965286169</v>
+        <v>2.442269563674927</v>
       </c>
     </row>
   </sheetData>
